--- a/Code/Results/Cases/Case_5_243/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_243/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.246619161630917</v>
+        <v>0.9998340106875503</v>
       </c>
       <c r="C2">
-        <v>0.3779286343208241</v>
+        <v>0.2532704065238534</v>
       </c>
       <c r="D2">
-        <v>0.0402735523581299</v>
+        <v>0.02824048846233751</v>
       </c>
       <c r="E2">
-        <v>0.04420185264084875</v>
+        <v>0.1184694903238031</v>
       </c>
       <c r="F2">
-        <v>0.6332048692788064</v>
+        <v>0.8287855757083662</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.149843523018248</v>
+        <v>0.1886793512131248</v>
       </c>
       <c r="M2">
-        <v>0.3833657973108302</v>
+        <v>0.2225080754306248</v>
       </c>
       <c r="N2">
-        <v>0.7432804585422872</v>
+        <v>1.376402873543597</v>
       </c>
       <c r="O2">
-        <v>1.871624390762179</v>
+        <v>2.873585931597034</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.952254531628085</v>
+        <v>0.9154134562347451</v>
       </c>
       <c r="C3">
-        <v>0.3473397359687453</v>
+        <v>0.2429535528182356</v>
       </c>
       <c r="D3">
-        <v>0.03694291827819995</v>
+        <v>0.0270744962661027</v>
       </c>
       <c r="E3">
-        <v>0.0456858233284243</v>
+        <v>0.1194771694374737</v>
       </c>
       <c r="F3">
-        <v>0.5840341277287138</v>
+        <v>0.8230670106637845</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1357651283667778</v>
+        <v>0.1860235826452055</v>
       </c>
       <c r="M3">
-        <v>0.3343424190330495</v>
+        <v>0.2092003295402449</v>
       </c>
       <c r="N3">
-        <v>0.7764491928326223</v>
+        <v>1.390789325767418</v>
       </c>
       <c r="O3">
-        <v>1.757529486177532</v>
+        <v>2.869311570831997</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.772131128265301</v>
+        <v>0.8637903451062812</v>
       </c>
       <c r="C4">
-        <v>0.3285180660311795</v>
+        <v>0.2365655221593812</v>
       </c>
       <c r="D4">
-        <v>0.03489067966825488</v>
+        <v>0.02635243062252002</v>
       </c>
       <c r="E4">
-        <v>0.04665209181322094</v>
+        <v>0.1201334435495065</v>
       </c>
       <c r="F4">
-        <v>0.5550760381393118</v>
+        <v>0.8201120332256338</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1272845635228776</v>
+        <v>0.1844843663127094</v>
       </c>
       <c r="M4">
-        <v>0.3044146758205244</v>
+        <v>0.2011066445347964</v>
       </c>
       <c r="N4">
-        <v>0.7979197846923682</v>
+        <v>1.400155429781762</v>
       </c>
       <c r="O4">
-        <v>1.691523377360966</v>
+        <v>2.868562608234441</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.698854818290073</v>
+        <v>0.8428078309324576</v>
       </c>
       <c r="C5">
-        <v>0.3208361804257152</v>
+        <v>0.2339490491903433</v>
       </c>
       <c r="D5">
-        <v>0.03405243902133037</v>
+        <v>0.02605665567152116</v>
       </c>
       <c r="E5">
-        <v>0.0470594902705348</v>
+        <v>0.1204103349571133</v>
       </c>
       <c r="F5">
-        <v>0.5435655613899613</v>
+        <v>0.8190476355548668</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1238670406050204</v>
+        <v>0.183880166847679</v>
       </c>
       <c r="M5">
-        <v>0.2922565918756774</v>
+        <v>0.1978280302640343</v>
       </c>
       <c r="N5">
-        <v>0.8069393714939785</v>
+        <v>1.404106192046012</v>
       </c>
       <c r="O5">
-        <v>1.665582427165873</v>
+        <v>2.8687286328487</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.686694078801537</v>
+        <v>0.8393270153740389</v>
       </c>
       <c r="C6">
-        <v>0.3195598386735128</v>
+        <v>0.2335137867586354</v>
       </c>
       <c r="D6">
-        <v>0.03391312942972036</v>
+        <v>0.02600745072161459</v>
       </c>
       <c r="E6">
-        <v>0.047127955788556</v>
+        <v>0.1204568839050189</v>
       </c>
       <c r="F6">
-        <v>0.541671220142014</v>
+        <v>0.8188793327823376</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1233018031134918</v>
+        <v>0.18378123328295</v>
       </c>
       <c r="M6">
-        <v>0.2902398675158437</v>
+        <v>0.1972848097824738</v>
       </c>
       <c r="N6">
-        <v>0.8084531662630141</v>
+        <v>1.404770307293489</v>
       </c>
       <c r="O6">
-        <v>1.661331032916735</v>
+        <v>2.868784651350154</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.771142428658834</v>
+        <v>0.8635071461037853</v>
       </c>
       <c r="C7">
-        <v>0.3284145159820611</v>
+        <v>0.2365302891501102</v>
       </c>
       <c r="D7">
-        <v>0.03487938285861247</v>
+        <v>0.0263484478590108</v>
       </c>
       <c r="E7">
-        <v>0.04665753120328686</v>
+        <v>0.1201371395088011</v>
       </c>
       <c r="F7">
-        <v>0.5549196544074135</v>
+        <v>0.8200971125481047</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1272383217858177</v>
+        <v>0.1844761244960225</v>
       </c>
       <c r="M7">
-        <v>0.3042505622969429</v>
+        <v>0.2010623482783629</v>
       </c>
       <c r="N7">
-        <v>0.7980403420311539</v>
+        <v>1.400208168545515</v>
       </c>
       <c r="O7">
-        <v>1.691169731807634</v>
+        <v>2.8685629398054</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.144975428511543</v>
+        <v>0.9706825803170887</v>
       </c>
       <c r="C8">
-        <v>0.3673887106152591</v>
+        <v>0.2497243277062609</v>
       </c>
       <c r="D8">
-        <v>0.03912656995871089</v>
+        <v>0.02783973895927971</v>
       </c>
       <c r="E8">
-        <v>0.04470195379296182</v>
+        <v>0.1188091501259567</v>
       </c>
       <c r="F8">
-        <v>0.6159826214856352</v>
+        <v>0.8266983059276853</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1449536162723959</v>
+        <v>0.1877446940578054</v>
       </c>
       <c r="M8">
-        <v>0.3664231000499569</v>
+        <v>0.217903621792324</v>
       </c>
       <c r="N8">
-        <v>0.7544829851847119</v>
+        <v>1.381252765874365</v>
       </c>
       <c r="O8">
-        <v>1.831406460449699</v>
+        <v>2.871722630734695</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.884433220618462</v>
+        <v>1.182491285369963</v>
       </c>
       <c r="C9">
-        <v>0.4435940182098932</v>
+        <v>0.2751687732997254</v>
       </c>
       <c r="D9">
-        <v>0.04740441548813834</v>
+        <v>0.03071480266731896</v>
       </c>
       <c r="E9">
-        <v>0.04131456793414534</v>
+        <v>0.1165024395906844</v>
       </c>
       <c r="F9">
-        <v>0.7464626325526922</v>
+        <v>0.844062936668692</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.181125484495773</v>
+        <v>0.1948781482326112</v>
       </c>
       <c r="M9">
-        <v>0.4899956586364098</v>
+        <v>0.2515365702152224</v>
       </c>
       <c r="N9">
-        <v>0.6781977410227142</v>
+        <v>1.348306900267936</v>
       </c>
       <c r="O9">
-        <v>2.141459134000314</v>
+        <v>2.89282208470641</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.433834794989878</v>
+        <v>1.339068263590491</v>
       </c>
       <c r="C10">
-        <v>0.4995932792274687</v>
+        <v>0.2935962198798734</v>
       </c>
       <c r="D10">
-        <v>0.05346530001951777</v>
+        <v>0.03279637627263554</v>
       </c>
       <c r="E10">
-        <v>0.03911345982204306</v>
+        <v>0.1149883120733852</v>
       </c>
       <c r="F10">
-        <v>0.8502866208373376</v>
+        <v>0.8595264885623237</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2087743302247276</v>
+        <v>0.2005588575999298</v>
       </c>
       <c r="M10">
-        <v>0.5822173517374551</v>
+        <v>0.2766111450380748</v>
       </c>
       <c r="N10">
-        <v>0.6282514196880129</v>
+        <v>1.326675052089328</v>
       </c>
       <c r="O10">
-        <v>2.394964996488881</v>
+        <v>2.91744667579394</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.685641301939597</v>
+        <v>1.410500935366201</v>
       </c>
       <c r="C11">
-        <v>0.5251074816851826</v>
+        <v>0.3019204887245053</v>
       </c>
       <c r="D11">
-        <v>0.05622052344781281</v>
+        <v>0.03373653787132014</v>
       </c>
       <c r="E11">
-        <v>0.03817802794205338</v>
+        <v>0.1143385579397709</v>
       </c>
       <c r="F11">
-        <v>0.8995857835969332</v>
+        <v>0.8671514069051796</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2216334639954312</v>
+        <v>0.2032383865872021</v>
       </c>
       <c r="M11">
-        <v>0.6245850193151483</v>
+        <v>0.2880963012296149</v>
       </c>
       <c r="N11">
-        <v>0.6069816276658671</v>
+        <v>1.317392492080685</v>
       </c>
       <c r="O11">
-        <v>2.516913737267487</v>
+        <v>2.930638455276153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.781312103106529</v>
+        <v>1.437579164946953</v>
       </c>
       <c r="C12">
-        <v>0.53477798425331</v>
+        <v>0.3050641451535796</v>
       </c>
       <c r="D12">
-        <v>0.05726379506416635</v>
+        <v>0.0340915660672394</v>
       </c>
       <c r="E12">
-        <v>0.03783358600429221</v>
+        <v>0.1140981144268842</v>
       </c>
       <c r="F12">
-        <v>0.9185819642676307</v>
+        <v>0.8701238267605333</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2265476215142286</v>
+        <v>0.2042667260072903</v>
       </c>
       <c r="M12">
-        <v>0.6406973794343997</v>
+        <v>0.2924565858272317</v>
       </c>
       <c r="N12">
-        <v>0.5991475615677118</v>
+        <v>1.313957642468303</v>
       </c>
       <c r="O12">
-        <v>2.56413905108738</v>
+        <v>2.935920541193411</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.760692796436786</v>
+        <v>1.431746148260913</v>
       </c>
       <c r="C13">
-        <v>0.5326948234963993</v>
+        <v>0.3043874858347237</v>
       </c>
       <c r="D13">
-        <v>0.05703910763720899</v>
+        <v>0.03401514875208989</v>
       </c>
       <c r="E13">
-        <v>0.03790732729857993</v>
+        <v>0.1141496491176257</v>
       </c>
       <c r="F13">
-        <v>0.9144757203049494</v>
+        <v>0.8694798793890186</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2254872123095311</v>
+        <v>0.2040446479907558</v>
       </c>
       <c r="M13">
-        <v>0.6372240924716976</v>
+        <v>0.2915170297712208</v>
       </c>
       <c r="N13">
-        <v>0.6008247730765746</v>
+        <v>1.314693828891144</v>
       </c>
       <c r="O13">
-        <v>2.55392015951918</v>
+        <v>2.934770192977794</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.693505559805885</v>
+        <v>1.412728119076803</v>
       </c>
       <c r="C14">
-        <v>0.5259028840712858</v>
+        <v>0.3021792917466826</v>
       </c>
       <c r="D14">
-        <v>0.05630635424834907</v>
+        <v>0.03376576621617033</v>
       </c>
       <c r="E14">
-        <v>0.03814949250439081</v>
+        <v>0.1143186642358724</v>
       </c>
       <c r="F14">
-        <v>0.9011418634651989</v>
+        <v>0.8673942448907042</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2220368340297227</v>
+        <v>0.2033227152141137</v>
       </c>
       <c r="M14">
-        <v>0.6259091637708636</v>
+        <v>0.2884548030377161</v>
       </c>
       <c r="N14">
-        <v>0.6063326284365331</v>
+        <v>1.317108296317201</v>
       </c>
       <c r="O14">
-        <v>2.520777471992631</v>
+        <v>2.931067268030915</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.652394186744175</v>
+        <v>1.401082665866568</v>
       </c>
       <c r="C15">
-        <v>0.5217438714738023</v>
+        <v>0.3008255892684986</v>
       </c>
       <c r="D15">
-        <v>0.05585751859945987</v>
+        <v>0.0336128826439861</v>
       </c>
       <c r="E15">
-        <v>0.03829910974875173</v>
+        <v>0.1144229204761213</v>
       </c>
       <c r="F15">
-        <v>0.8930180943290367</v>
+        <v>0.8661278103284218</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2199293265944391</v>
+        <v>0.2028822879686913</v>
       </c>
       <c r="M15">
-        <v>0.6189876582792309</v>
+        <v>0.2865805410885116</v>
       </c>
       <c r="N15">
-        <v>0.6097354049933017</v>
+        <v>1.318597679860282</v>
       </c>
       <c r="O15">
-        <v>2.500615713375566</v>
+        <v>2.928836463947761</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.417420402832533</v>
+        <v>1.334403988728411</v>
       </c>
       <c r="C16">
-        <v>0.4979269263958486</v>
+        <v>0.2930510194657643</v>
       </c>
       <c r="D16">
-        <v>0.05328521825768462</v>
+        <v>0.03273479691502956</v>
       </c>
       <c r="E16">
-        <v>0.03917594431746174</v>
+        <v>0.1150315597161082</v>
       </c>
       <c r="F16">
-        <v>0.8471089646858303</v>
+        <v>0.8590400742649393</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2079399727055318</v>
+        <v>0.2003856583486652</v>
       </c>
       <c r="M16">
-        <v>0.5794576312345256</v>
+        <v>0.2758621278752145</v>
       </c>
       <c r="N16">
-        <v>0.6296716293807663</v>
+        <v>1.327292917792448</v>
       </c>
       <c r="O16">
-        <v>2.387136510227577</v>
+        <v>2.916624646883633</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.273785415799466</v>
+        <v>1.293550397174613</v>
       </c>
       <c r="C17">
-        <v>0.4833283256404854</v>
+        <v>0.2882664864481512</v>
       </c>
       <c r="D17">
-        <v>0.05170684607993792</v>
+        <v>0.03219437568802874</v>
       </c>
       <c r="E17">
-        <v>0.03973094125610821</v>
+        <v>0.1154149308537473</v>
       </c>
       <c r="F17">
-        <v>0.819495887791021</v>
+        <v>0.8548432971164885</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2006598918730305</v>
+        <v>0.1988784412296809</v>
       </c>
       <c r="M17">
-        <v>0.5553197840826627</v>
+        <v>0.2693067203457957</v>
       </c>
       <c r="N17">
-        <v>0.6422815604709555</v>
+        <v>1.332770071880852</v>
       </c>
       <c r="O17">
-        <v>2.319282147660061</v>
+        <v>2.909643114798598</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.191344411629302</v>
+        <v>1.270071864073543</v>
       </c>
       <c r="C18">
-        <v>0.4749351465598011</v>
+        <v>0.2855090555095501</v>
       </c>
       <c r="D18">
-        <v>0.05079881588419255</v>
+        <v>0.03188290485441314</v>
       </c>
       <c r="E18">
-        <v>0.04005634026818683</v>
+        <v>0.1156391099730243</v>
       </c>
       <c r="F18">
-        <v>0.8038063996244915</v>
+        <v>0.8524849927366915</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.196498812369839</v>
+        <v>0.1980205072332382</v>
       </c>
       <c r="M18">
-        <v>0.5414748754706196</v>
+        <v>0.2655436339572717</v>
       </c>
       <c r="N18">
-        <v>0.6496702910121428</v>
+        <v>1.335972893777416</v>
       </c>
       <c r="O18">
-        <v>2.280871977563947</v>
+        <v>2.905814794237386</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.16345983349197</v>
+        <v>1.262125801635136</v>
       </c>
       <c r="C19">
-        <v>0.4720938802645378</v>
+        <v>0.2845744979084373</v>
       </c>
       <c r="D19">
-        <v>0.05049133356908442</v>
+        <v>0.03177733772768221</v>
       </c>
       <c r="E19">
-        <v>0.04016756681809586</v>
+        <v>0.1157156444659355</v>
       </c>
       <c r="F19">
-        <v>0.7985264442686173</v>
+        <v>0.8516960520747858</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1950943244857797</v>
+        <v>0.1977315689491803</v>
       </c>
       <c r="M19">
-        <v>0.536793587312701</v>
+        <v>0.2642707963950954</v>
       </c>
       <c r="N19">
-        <v>0.6521949747217093</v>
+        <v>1.337066331576054</v>
       </c>
       <c r="O19">
-        <v>2.267970353653368</v>
+        <v>2.904550739695821</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.289057266414261</v>
+        <v>1.297897335878588</v>
       </c>
       <c r="C20">
-        <v>0.4848819826739543</v>
+        <v>0.2887763779036447</v>
       </c>
       <c r="D20">
-        <v>0.05187488498365411</v>
+        <v>0.03225197029090054</v>
       </c>
       <c r="E20">
-        <v>0.03967121911368832</v>
+        <v>0.1153737401375965</v>
       </c>
       <c r="F20">
-        <v>0.8224151793683774</v>
+        <v>0.8552842989634684</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2014321247183233</v>
+        <v>0.1990379583026254</v>
       </c>
       <c r="M20">
-        <v>0.5578852478992928</v>
+        <v>0.270003789132204</v>
       </c>
       <c r="N20">
-        <v>0.6409250716927488</v>
+        <v>1.332181584900454</v>
       </c>
       <c r="O20">
-        <v>2.326440762734222</v>
+        <v>2.910366925250401</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.713231082349353</v>
+        <v>1.418313419165031</v>
       </c>
       <c r="C21">
-        <v>0.5278975756324087</v>
+        <v>0.3028281255286629</v>
       </c>
       <c r="D21">
-        <v>0.05652158192869905</v>
+        <v>0.03383904294785367</v>
       </c>
       <c r="E21">
-        <v>0.03807809452726563</v>
+        <v>0.1142688683651452</v>
       </c>
       <c r="F21">
-        <v>0.9050491965974032</v>
+        <v>0.8680045376944463</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.223049046090992</v>
+        <v>0.2035343940475229</v>
       </c>
       <c r="M21">
-        <v>0.6292306953506355</v>
+        <v>0.2893539534457119</v>
       </c>
       <c r="N21">
-        <v>0.6047087605024188</v>
+        <v>1.316396930345149</v>
       </c>
       <c r="O21">
-        <v>2.530483119673505</v>
+        <v>2.932147123433793</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.992326123833095</v>
+        <v>1.497176238783084</v>
       </c>
       <c r="C22">
-        <v>0.5560638555118942</v>
+        <v>0.3119617681342959</v>
       </c>
       <c r="D22">
-        <v>0.05955815579704193</v>
+        <v>0.03487050392620716</v>
       </c>
       <c r="E22">
-        <v>0.03709409455823565</v>
+        <v>0.1135794330497442</v>
       </c>
       <c r="F22">
-        <v>0.9609807862818371</v>
+        <v>0.8768136165093097</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2374395751086951</v>
+        <v>0.2065526718712647</v>
       </c>
       <c r="M22">
-        <v>0.6762638133927155</v>
+        <v>0.3020650422218765</v>
       </c>
       <c r="N22">
-        <v>0.5823296665950863</v>
+        <v>1.306548548254597</v>
       </c>
       <c r="O22">
-        <v>2.669981640116617</v>
+        <v>2.948052759101955</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.843180070905476</v>
+        <v>1.455071080470532</v>
       </c>
       <c r="C23">
-        <v>0.5410250237426055</v>
+        <v>0.3070915963349421</v>
       </c>
       <c r="D23">
-        <v>0.0579374362175713</v>
+        <v>0.03432052917890616</v>
       </c>
       <c r="E23">
-        <v>0.03761393117292222</v>
+        <v>0.1139444117435096</v>
       </c>
       <c r="F23">
-        <v>0.9309423095453724</v>
+        <v>0.8720666524777698</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2297335795113469</v>
+        <v>0.2049344937795468</v>
       </c>
       <c r="M23">
-        <v>0.6511211984255283</v>
+        <v>0.2952750460107012</v>
       </c>
       <c r="N23">
-        <v>0.5941516605626092</v>
+        <v>1.311761999376245</v>
       </c>
       <c r="O23">
-        <v>2.59493380593716</v>
+        <v>2.9394105604907</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.282152440558434</v>
+        <v>1.295932057568905</v>
       </c>
       <c r="C24">
-        <v>0.4841795753349345</v>
+        <v>0.2885458769584091</v>
       </c>
       <c r="D24">
-        <v>0.05179891648857193</v>
+        <v>0.03222593418489339</v>
       </c>
       <c r="E24">
-        <v>0.03969819982041844</v>
+        <v>0.115392350704357</v>
       </c>
       <c r="F24">
-        <v>0.8210947916773392</v>
+        <v>0.8550847523389677</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2010829227615289</v>
+        <v>0.1989658138886767</v>
       </c>
       <c r="M24">
-        <v>0.5567253018847538</v>
+        <v>0.269688626549538</v>
       </c>
       <c r="N24">
-        <v>0.6415379078368062</v>
+        <v>1.332447471864668</v>
       </c>
       <c r="O24">
-        <v>2.323202490291123</v>
+        <v>2.910039112894935</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.683486720948224</v>
+        <v>1.125019938851722</v>
       </c>
       <c r="C25">
-        <v>0.4229878742266635</v>
+        <v>0.2683318293564412</v>
       </c>
       <c r="D25">
-        <v>0.04516948384847552</v>
+        <v>0.02994237257370003</v>
       </c>
       <c r="E25">
-        <v>0.04218155886810937</v>
+        <v>0.1170946956531096</v>
       </c>
       <c r="F25">
-        <v>0.7098745601269059</v>
+        <v>0.8388910036447186</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1711668307376186</v>
+        <v>0.1928710261636155</v>
       </c>
       <c r="M25">
-        <v>0.4563469584233459</v>
+        <v>0.242373551117403</v>
       </c>
       <c r="N25">
-        <v>0.6978044715053571</v>
+        <v>1.356767530887481</v>
       </c>
       <c r="O25">
-        <v>2.053398765520257</v>
+        <v>2.885514754911753</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_243/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_243/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9998340106875503</v>
+        <v>2.246619161630747</v>
       </c>
       <c r="C2">
-        <v>0.2532704065238534</v>
+        <v>0.3779286343205257</v>
       </c>
       <c r="D2">
-        <v>0.02824048846233751</v>
+        <v>0.04027355235813701</v>
       </c>
       <c r="E2">
-        <v>0.1184694903238031</v>
+        <v>0.04420185264089094</v>
       </c>
       <c r="F2">
-        <v>0.8287855757083662</v>
+        <v>0.6332048692787922</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1886793512131248</v>
+        <v>0.149843523018184</v>
       </c>
       <c r="M2">
-        <v>0.2225080754306248</v>
+        <v>0.3833657973108515</v>
       </c>
       <c r="N2">
-        <v>1.376402873543597</v>
+        <v>0.7432804585423369</v>
       </c>
       <c r="O2">
-        <v>2.873585931597034</v>
+        <v>1.871624390762179</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9154134562347451</v>
+        <v>1.952254531628057</v>
       </c>
       <c r="C3">
-        <v>0.2429535528182356</v>
+        <v>0.3473397359686459</v>
       </c>
       <c r="D3">
-        <v>0.0270744962661027</v>
+        <v>0.03694291827817153</v>
       </c>
       <c r="E3">
-        <v>0.1194771694374737</v>
+        <v>0.04568582332840654</v>
       </c>
       <c r="F3">
-        <v>0.8230670106637845</v>
+        <v>0.5840341277287209</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1860235826452055</v>
+        <v>0.1357651283667352</v>
       </c>
       <c r="M3">
-        <v>0.2092003295402449</v>
+        <v>0.3343424190330495</v>
       </c>
       <c r="N3">
-        <v>1.390789325767418</v>
+        <v>0.7764491928326755</v>
       </c>
       <c r="O3">
-        <v>2.869311570831997</v>
+        <v>1.757529486177503</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8637903451062812</v>
+        <v>1.772131128265329</v>
       </c>
       <c r="C4">
-        <v>0.2365655221593812</v>
+        <v>0.3285180660311795</v>
       </c>
       <c r="D4">
-        <v>0.02635243062252002</v>
+        <v>0.0348906796682158</v>
       </c>
       <c r="E4">
-        <v>0.1201334435495065</v>
+        <v>0.04665209181324759</v>
       </c>
       <c r="F4">
-        <v>0.8201120332256338</v>
+        <v>0.5550760381392834</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1844843663127094</v>
+        <v>0.1272845635228279</v>
       </c>
       <c r="M4">
-        <v>0.2011066445347964</v>
+        <v>0.3044146758205173</v>
       </c>
       <c r="N4">
-        <v>1.400155429781762</v>
+        <v>0.7979197846923043</v>
       </c>
       <c r="O4">
-        <v>2.868562608234441</v>
+        <v>1.691523377360937</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8428078309324576</v>
+        <v>1.698854818289931</v>
       </c>
       <c r="C5">
-        <v>0.2339490491903433</v>
+        <v>0.3208361804259567</v>
       </c>
       <c r="D5">
-        <v>0.02605665567152116</v>
+        <v>0.03405243902128419</v>
       </c>
       <c r="E5">
-        <v>0.1204103349571133</v>
+        <v>0.04705949027051881</v>
       </c>
       <c r="F5">
-        <v>0.8190476355548668</v>
+        <v>0.5435655613899613</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.183880166847679</v>
+        <v>0.1238670406048996</v>
       </c>
       <c r="M5">
-        <v>0.1978280302640343</v>
+        <v>0.2922565918756703</v>
       </c>
       <c r="N5">
-        <v>1.404106192046012</v>
+        <v>0.806939371493975</v>
       </c>
       <c r="O5">
-        <v>2.8687286328487</v>
+        <v>1.665582427165845</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8393270153740389</v>
+        <v>1.686694078801509</v>
       </c>
       <c r="C6">
-        <v>0.2335137867586354</v>
+        <v>0.3195598386732996</v>
       </c>
       <c r="D6">
-        <v>0.02600745072161459</v>
+        <v>0.03391312942988733</v>
       </c>
       <c r="E6">
-        <v>0.1204568839050189</v>
+        <v>0.04712795578857376</v>
       </c>
       <c r="F6">
-        <v>0.8188793327823376</v>
+        <v>0.5416712201419998</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.18378123328295</v>
+        <v>0.1233018031134421</v>
       </c>
       <c r="M6">
-        <v>0.1972848097824738</v>
+        <v>0.2902398675158722</v>
       </c>
       <c r="N6">
-        <v>1.404770307293489</v>
+        <v>0.808453166262975</v>
       </c>
       <c r="O6">
-        <v>2.868784651350154</v>
+        <v>1.661331032916678</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8635071461037853</v>
+        <v>1.771142428658692</v>
       </c>
       <c r="C7">
-        <v>0.2365302891501102</v>
+        <v>0.3284145159818195</v>
       </c>
       <c r="D7">
-        <v>0.0263484478590108</v>
+        <v>0.03487938285871905</v>
       </c>
       <c r="E7">
-        <v>0.1201371395088011</v>
+        <v>0.04665753120328331</v>
       </c>
       <c r="F7">
-        <v>0.8200971125481047</v>
+        <v>0.5549196544074277</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1844761244960225</v>
+        <v>0.1272383217857822</v>
       </c>
       <c r="M7">
-        <v>0.2010623482783629</v>
+        <v>0.3042505622969642</v>
       </c>
       <c r="N7">
-        <v>1.400208168545515</v>
+        <v>0.7980403420311468</v>
       </c>
       <c r="O7">
-        <v>2.8685629398054</v>
+        <v>1.691169731807634</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9706825803170887</v>
+        <v>2.1449754285116</v>
       </c>
       <c r="C8">
-        <v>0.2497243277062609</v>
+        <v>0.3673887106150886</v>
       </c>
       <c r="D8">
-        <v>0.02783973895927971</v>
+        <v>0.03912656995871799</v>
       </c>
       <c r="E8">
-        <v>0.1188091501259567</v>
+        <v>0.0447019537929787</v>
       </c>
       <c r="F8">
-        <v>0.8266983059276853</v>
+        <v>0.6159826214856281</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1877446940578054</v>
+        <v>0.1449536162723675</v>
       </c>
       <c r="M8">
-        <v>0.217903621792324</v>
+        <v>0.3664231000499356</v>
       </c>
       <c r="N8">
-        <v>1.381252765874365</v>
+        <v>0.7544829851847865</v>
       </c>
       <c r="O8">
-        <v>2.871722630734695</v>
+        <v>1.831406460449642</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.182491285369963</v>
+        <v>2.884433220618348</v>
       </c>
       <c r="C9">
-        <v>0.2751687732997254</v>
+        <v>0.4435940182098648</v>
       </c>
       <c r="D9">
-        <v>0.03071480266731896</v>
+        <v>0.04740441548832308</v>
       </c>
       <c r="E9">
-        <v>0.1165024395906844</v>
+        <v>0.04131456793414312</v>
       </c>
       <c r="F9">
-        <v>0.844062936668692</v>
+        <v>0.746462632552678</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1948781482326112</v>
+        <v>0.1811254844958441</v>
       </c>
       <c r="M9">
-        <v>0.2515365702152224</v>
+        <v>0.4899956586364169</v>
       </c>
       <c r="N9">
-        <v>1.348306900267936</v>
+        <v>0.6781977410226929</v>
       </c>
       <c r="O9">
-        <v>2.89282208470641</v>
+        <v>2.141459134000314</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.339068263590491</v>
+        <v>3.433834794989821</v>
       </c>
       <c r="C10">
-        <v>0.2935962198798734</v>
+        <v>0.4995932792274402</v>
       </c>
       <c r="D10">
-        <v>0.03279637627263554</v>
+        <v>0.05346530001962435</v>
       </c>
       <c r="E10">
-        <v>0.1149883120733852</v>
+        <v>0.03911345982202619</v>
       </c>
       <c r="F10">
-        <v>0.8595264885623237</v>
+        <v>0.8502866208373376</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2005588575999298</v>
+        <v>0.2087743302247986</v>
       </c>
       <c r="M10">
-        <v>0.2766111450380748</v>
+        <v>0.5822173517374765</v>
       </c>
       <c r="N10">
-        <v>1.326675052089328</v>
+        <v>0.6282514196880555</v>
       </c>
       <c r="O10">
-        <v>2.91744667579394</v>
+        <v>2.394964996488937</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.410500935366201</v>
+        <v>3.685641301939654</v>
       </c>
       <c r="C11">
-        <v>0.3019204887245053</v>
+        <v>0.5251074816851258</v>
       </c>
       <c r="D11">
-        <v>0.03373653787132014</v>
+        <v>0.05622052344791939</v>
       </c>
       <c r="E11">
-        <v>0.1143385579397709</v>
+        <v>0.03817802794205427</v>
       </c>
       <c r="F11">
-        <v>0.8671514069051796</v>
+        <v>0.8995857835969332</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2032383865872021</v>
+        <v>0.2216334639954169</v>
       </c>
       <c r="M11">
-        <v>0.2880963012296149</v>
+        <v>0.6245850193151483</v>
       </c>
       <c r="N11">
-        <v>1.317392492080685</v>
+        <v>0.6069816276658031</v>
       </c>
       <c r="O11">
-        <v>2.930638455276153</v>
+        <v>2.516913737267487</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.437579164946953</v>
+        <v>3.781312103106416</v>
       </c>
       <c r="C12">
-        <v>0.3050641451535796</v>
+        <v>0.5347779842530826</v>
       </c>
       <c r="D12">
-        <v>0.0340915660672394</v>
+        <v>0.05726379506432977</v>
       </c>
       <c r="E12">
-        <v>0.1140981144268842</v>
+        <v>0.03783358600430731</v>
       </c>
       <c r="F12">
-        <v>0.8701238267605333</v>
+        <v>0.9185819642676449</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2042667260072903</v>
+        <v>0.2265476215142712</v>
       </c>
       <c r="M12">
-        <v>0.2924565858272317</v>
+        <v>0.6406973794343997</v>
       </c>
       <c r="N12">
-        <v>1.313957642468303</v>
+        <v>0.5991475615677189</v>
       </c>
       <c r="O12">
-        <v>2.935920541193411</v>
+        <v>2.564139051087352</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.431746148260913</v>
+        <v>3.760692796436615</v>
       </c>
       <c r="C13">
-        <v>0.3043874858347237</v>
+        <v>0.5326948234965414</v>
       </c>
       <c r="D13">
-        <v>0.03401514875208989</v>
+        <v>0.05703910763744346</v>
       </c>
       <c r="E13">
-        <v>0.1141496491176257</v>
+        <v>0.03790732729857815</v>
       </c>
       <c r="F13">
-        <v>0.8694798793890186</v>
+        <v>0.9144757203049494</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2040446479907558</v>
+        <v>0.225487212309659</v>
       </c>
       <c r="M13">
-        <v>0.2915170297712208</v>
+        <v>0.6372240924716905</v>
       </c>
       <c r="N13">
-        <v>1.314693828891144</v>
+        <v>0.6008247730765177</v>
       </c>
       <c r="O13">
-        <v>2.934770192977794</v>
+        <v>2.55392015951918</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.412728119076803</v>
+        <v>3.693505559805999</v>
       </c>
       <c r="C14">
-        <v>0.3021792917466826</v>
+        <v>0.5259028840712858</v>
       </c>
       <c r="D14">
-        <v>0.03376576621617033</v>
+        <v>0.05630635424822117</v>
       </c>
       <c r="E14">
-        <v>0.1143186642358724</v>
+        <v>0.03814949250438993</v>
       </c>
       <c r="F14">
-        <v>0.8673942448907042</v>
+        <v>0.9011418634651989</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2033227152141137</v>
+        <v>0.2220368340297085</v>
       </c>
       <c r="M14">
-        <v>0.2884548030377161</v>
+        <v>0.6259091637708565</v>
       </c>
       <c r="N14">
-        <v>1.317108296317201</v>
+        <v>0.6063326284365331</v>
       </c>
       <c r="O14">
-        <v>2.931067268030915</v>
+        <v>2.520777471992687</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.401082665866568</v>
+        <v>3.652394186744175</v>
       </c>
       <c r="C15">
-        <v>0.3008255892684986</v>
+        <v>0.5217438714738023</v>
       </c>
       <c r="D15">
-        <v>0.0336128826439861</v>
+        <v>0.05585751859935328</v>
       </c>
       <c r="E15">
-        <v>0.1144229204761213</v>
+        <v>0.0382991097487535</v>
       </c>
       <c r="F15">
-        <v>0.8661278103284218</v>
+        <v>0.8930180943290367</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2028822879686913</v>
+        <v>0.2199293265943112</v>
       </c>
       <c r="M15">
-        <v>0.2865805410885116</v>
+        <v>0.6189876582792451</v>
       </c>
       <c r="N15">
-        <v>1.318597679860282</v>
+        <v>0.6097354049933656</v>
       </c>
       <c r="O15">
-        <v>2.928836463947761</v>
+        <v>2.500615713375566</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.334403988728411</v>
+        <v>3.417420402832249</v>
       </c>
       <c r="C16">
-        <v>0.2930510194657643</v>
+        <v>0.4979269263956212</v>
       </c>
       <c r="D16">
-        <v>0.03273479691502956</v>
+        <v>0.05328521825780541</v>
       </c>
       <c r="E16">
-        <v>0.1150315597161082</v>
+        <v>0.03917594431745908</v>
       </c>
       <c r="F16">
-        <v>0.8590400742649393</v>
+        <v>0.8471089646858303</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2003856583486652</v>
+        <v>0.2079399727055176</v>
       </c>
       <c r="M16">
-        <v>0.2758621278752145</v>
+        <v>0.5794576312345328</v>
       </c>
       <c r="N16">
-        <v>1.327292917792448</v>
+        <v>0.6296716293807663</v>
       </c>
       <c r="O16">
-        <v>2.916624646883633</v>
+        <v>2.387136510227521</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.293550397174613</v>
+        <v>3.273785415799466</v>
       </c>
       <c r="C17">
-        <v>0.2882664864481512</v>
+        <v>0.4833283256404286</v>
       </c>
       <c r="D17">
-        <v>0.03219437568802874</v>
+        <v>0.05170684607988107</v>
       </c>
       <c r="E17">
-        <v>0.1154149308537473</v>
+        <v>0.03973094125611176</v>
       </c>
       <c r="F17">
-        <v>0.8548432971164885</v>
+        <v>0.8194958877910352</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1988784412296809</v>
+        <v>0.200659891873002</v>
       </c>
       <c r="M17">
-        <v>0.2693067203457957</v>
+        <v>0.5553197840826698</v>
       </c>
       <c r="N17">
-        <v>1.332770071880852</v>
+        <v>0.6422815604708845</v>
       </c>
       <c r="O17">
-        <v>2.909643114798598</v>
+        <v>2.319282147660061</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.270071864073543</v>
+        <v>3.191344411629302</v>
       </c>
       <c r="C18">
-        <v>0.2855090555095501</v>
+        <v>0.4749351465599432</v>
       </c>
       <c r="D18">
-        <v>0.03188290485441314</v>
+        <v>0.05079881588430624</v>
       </c>
       <c r="E18">
-        <v>0.1156391099730243</v>
+        <v>0.04005634026818772</v>
       </c>
       <c r="F18">
-        <v>0.8524849927366915</v>
+        <v>0.8038063996244915</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1980205072332382</v>
+        <v>0.1964988123699527</v>
       </c>
       <c r="M18">
-        <v>0.2655436339572717</v>
+        <v>0.5414748754706125</v>
       </c>
       <c r="N18">
-        <v>1.335972893777416</v>
+        <v>0.6496702910121428</v>
       </c>
       <c r="O18">
-        <v>2.905814794237386</v>
+        <v>2.280871977564004</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.262125801635136</v>
+        <v>3.163459833491856</v>
       </c>
       <c r="C19">
-        <v>0.2845744979084373</v>
+        <v>0.472093880264481</v>
       </c>
       <c r="D19">
-        <v>0.03177733772768221</v>
+        <v>0.05049133356902047</v>
       </c>
       <c r="E19">
-        <v>0.1157156444659355</v>
+        <v>0.04016756681809497</v>
       </c>
       <c r="F19">
-        <v>0.8516960520747858</v>
+        <v>0.7985264442686173</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1977315689491803</v>
+        <v>0.1950943244857939</v>
       </c>
       <c r="M19">
-        <v>0.2642707963950954</v>
+        <v>0.5367935873126939</v>
       </c>
       <c r="N19">
-        <v>1.337066331576054</v>
+        <v>0.6521949747217093</v>
       </c>
       <c r="O19">
-        <v>2.904550739695821</v>
+        <v>2.26797035365334</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.297897335878588</v>
+        <v>3.289057266414432</v>
       </c>
       <c r="C20">
-        <v>0.2887763779036447</v>
+        <v>0.484881982674068</v>
       </c>
       <c r="D20">
-        <v>0.03225197029090054</v>
+        <v>0.05187488498388859</v>
       </c>
       <c r="E20">
-        <v>0.1153737401375965</v>
+        <v>0.03967121911370697</v>
       </c>
       <c r="F20">
-        <v>0.8552842989634684</v>
+        <v>0.8224151793683632</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1990379583026254</v>
+        <v>0.2014321247182949</v>
       </c>
       <c r="M20">
-        <v>0.270003789132204</v>
+        <v>0.5578852478992999</v>
       </c>
       <c r="N20">
-        <v>1.332181584900454</v>
+        <v>0.6409250716927488</v>
       </c>
       <c r="O20">
-        <v>2.910366925250401</v>
+        <v>2.326440762734194</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.418313419165031</v>
+        <v>3.713231082349466</v>
       </c>
       <c r="C21">
-        <v>0.3028281255286629</v>
+        <v>0.5278975756330055</v>
       </c>
       <c r="D21">
-        <v>0.03383904294785367</v>
+        <v>0.05652158192888379</v>
       </c>
       <c r="E21">
-        <v>0.1142688683651452</v>
+        <v>0.03807809452726474</v>
       </c>
       <c r="F21">
-        <v>0.8680045376944463</v>
+        <v>0.9050491965974174</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2035343940475229</v>
+        <v>0.2230490460910346</v>
       </c>
       <c r="M21">
-        <v>0.2893539534457119</v>
+        <v>0.6292306953506426</v>
       </c>
       <c r="N21">
-        <v>1.316396930345149</v>
+        <v>0.6047087605024046</v>
       </c>
       <c r="O21">
-        <v>2.932147123433793</v>
+        <v>2.53048311967359</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.497176238783084</v>
+        <v>3.992326123832981</v>
       </c>
       <c r="C22">
-        <v>0.3119617681342959</v>
+        <v>0.5560638555115247</v>
       </c>
       <c r="D22">
-        <v>0.03487050392620716</v>
+        <v>0.05955815579703483</v>
       </c>
       <c r="E22">
-        <v>0.1135794330497442</v>
+        <v>0.03709409455823653</v>
       </c>
       <c r="F22">
-        <v>0.8768136165093097</v>
+        <v>0.9609807862818371</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2065526718712647</v>
+        <v>0.2374395751087377</v>
       </c>
       <c r="M22">
-        <v>0.3020650422218765</v>
+        <v>0.6762638133927155</v>
       </c>
       <c r="N22">
-        <v>1.306548548254597</v>
+        <v>0.5823296665950863</v>
       </c>
       <c r="O22">
-        <v>2.948052759101955</v>
+        <v>2.669981640116589</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.455071080470532</v>
+        <v>3.843180070905646</v>
       </c>
       <c r="C23">
-        <v>0.3070915963349421</v>
+        <v>0.5410250237422645</v>
       </c>
       <c r="D23">
-        <v>0.03432052917890616</v>
+        <v>0.05793743621762815</v>
       </c>
       <c r="E23">
-        <v>0.1139444117435096</v>
+        <v>0.03761393117292222</v>
       </c>
       <c r="F23">
-        <v>0.8720666524777698</v>
+        <v>0.9309423095453866</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2049344937795468</v>
+        <v>0.2297335795113611</v>
       </c>
       <c r="M23">
-        <v>0.2952750460107012</v>
+        <v>0.651121198425507</v>
       </c>
       <c r="N23">
-        <v>1.311761999376245</v>
+        <v>0.5941516605625665</v>
       </c>
       <c r="O23">
-        <v>2.9394105604907</v>
+        <v>2.594933805937217</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.295932057568905</v>
+        <v>3.282152440558491</v>
       </c>
       <c r="C24">
-        <v>0.2885458769584091</v>
+        <v>0.4841795753353324</v>
       </c>
       <c r="D24">
-        <v>0.03222593418489339</v>
+        <v>0.05179891648864299</v>
       </c>
       <c r="E24">
-        <v>0.115392350704357</v>
+        <v>0.03969819982039358</v>
       </c>
       <c r="F24">
-        <v>0.8550847523389677</v>
+        <v>0.8210947916773392</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1989658138886767</v>
+        <v>0.2010829227616</v>
       </c>
       <c r="M24">
-        <v>0.269688626549538</v>
+        <v>0.5567253018847467</v>
       </c>
       <c r="N24">
-        <v>1.332447471864668</v>
+        <v>0.6415379078368133</v>
       </c>
       <c r="O24">
-        <v>2.910039112894935</v>
+        <v>2.323202490291067</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.125019938851722</v>
+        <v>2.683486720948224</v>
       </c>
       <c r="C25">
-        <v>0.2683318293564412</v>
+        <v>0.4229878742265498</v>
       </c>
       <c r="D25">
-        <v>0.02994237257370003</v>
+        <v>0.04516948384847552</v>
       </c>
       <c r="E25">
-        <v>0.1170946956531096</v>
+        <v>0.04218155886810937</v>
       </c>
       <c r="F25">
-        <v>0.8388910036447186</v>
+        <v>0.7098745601269059</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1928710261636155</v>
+        <v>0.1711668307375405</v>
       </c>
       <c r="M25">
-        <v>0.242373551117403</v>
+        <v>0.456346958423353</v>
       </c>
       <c r="N25">
-        <v>1.356767530887481</v>
+        <v>0.6978044715053642</v>
       </c>
       <c r="O25">
-        <v>2.885514754911753</v>
+        <v>2.053398765520285</v>
       </c>
     </row>
   </sheetData>
